--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cxcl10-Cxcr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cxcl10-Cxcr3.xlsx
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.183547333333333</v>
+        <v>8.850858000000001</v>
       </c>
       <c r="H2">
-        <v>24.550642</v>
+        <v>26.552574</v>
       </c>
       <c r="I2">
-        <v>0.03093917512191417</v>
+        <v>0.05442939716240135</v>
       </c>
       <c r="J2">
-        <v>0.03093917512191417</v>
+        <v>0.05442939716240137</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.8058999999999999</v>
+        <v>0.065175</v>
       </c>
       <c r="N2">
-        <v>2.4177</v>
+        <v>0.195525</v>
       </c>
       <c r="O2">
-        <v>0.09451456273674329</v>
+        <v>0.009404016458916581</v>
       </c>
       <c r="P2">
-        <v>0.0945145627367433</v>
+        <v>0.009404016458916581</v>
       </c>
       <c r="Q2">
-        <v>6.595120795933333</v>
+        <v>0.57685467015</v>
       </c>
       <c r="R2">
-        <v>59.3560871634</v>
+        <v>5.19169203135</v>
       </c>
       <c r="S2">
-        <v>0.002924202608083244</v>
+        <v>0.0005118549467641298</v>
       </c>
       <c r="T2">
-        <v>0.002924202608083244</v>
+        <v>0.0005118549467641299</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.183547333333333</v>
+        <v>8.850858000000001</v>
       </c>
       <c r="H3">
-        <v>24.550642</v>
+        <v>26.552574</v>
       </c>
       <c r="I3">
-        <v>0.03093917512191417</v>
+        <v>0.05442939716240135</v>
       </c>
       <c r="J3">
-        <v>0.03093917512191417</v>
+        <v>0.05442939716240137</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.345069333333334</v>
+        <v>6.718514333333332</v>
       </c>
       <c r="N3">
-        <v>16.035208</v>
+        <v>20.155543</v>
       </c>
       <c r="O3">
-        <v>0.6268605172323812</v>
+        <v>0.969405744075698</v>
       </c>
       <c r="P3">
-        <v>0.6268605172323812</v>
+        <v>0.969405744075698</v>
       </c>
       <c r="Q3">
-        <v>43.74162788928178</v>
+        <v>59.464616335298</v>
       </c>
       <c r="R3">
-        <v>393.674651003536</v>
+        <v>535.181547017682</v>
       </c>
       <c r="S3">
-        <v>0.01939454731966634</v>
+        <v>0.05276417025580937</v>
       </c>
       <c r="T3">
-        <v>0.01939454731966634</v>
+        <v>0.05276417025580939</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.183547333333333</v>
+        <v>8.850858000000001</v>
       </c>
       <c r="H4">
-        <v>24.550642</v>
+        <v>26.552574</v>
       </c>
       <c r="I4">
-        <v>0.03093917512191417</v>
+        <v>0.05442939716240135</v>
       </c>
       <c r="J4">
-        <v>0.03093917512191417</v>
+        <v>0.05442939716240137</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>2.375759</v>
+        <v>0.14686</v>
       </c>
       <c r="N4">
-        <v>7.127277</v>
+        <v>0.44058</v>
       </c>
       <c r="O4">
-        <v>0.2786249200308754</v>
+        <v>0.02119023946538534</v>
       </c>
       <c r="P4">
-        <v>0.2786249200308755</v>
+        <v>0.02119023946538533</v>
       </c>
       <c r="Q4">
-        <v>19.44213622909266</v>
+        <v>1.29983700588</v>
       </c>
       <c r="R4">
-        <v>174.979226061834</v>
+        <v>11.69853305292</v>
       </c>
       <c r="S4">
-        <v>0.008620425194164586</v>
+        <v>0.00115337195982785</v>
       </c>
       <c r="T4">
-        <v>0.008620425194164586</v>
+        <v>0.00115337195982785</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,40 +735,40 @@
         <v>117.701738</v>
       </c>
       <c r="I5">
-        <v>0.1483299167547496</v>
+        <v>0.2412735821509021</v>
       </c>
       <c r="J5">
-        <v>0.1483299167547496</v>
+        <v>0.2412735821509022</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.8058999999999999</v>
+        <v>0.065175</v>
       </c>
       <c r="N5">
-        <v>2.4177</v>
+        <v>0.195525</v>
       </c>
       <c r="O5">
-        <v>0.09451456273674329</v>
+        <v>0.009404016458916581</v>
       </c>
       <c r="P5">
-        <v>0.0945145627367433</v>
+        <v>0.009404016458916581</v>
       </c>
       <c r="Q5">
-        <v>31.61861021806667</v>
+        <v>2.55707025805</v>
       </c>
       <c r="R5">
-        <v>284.5674919626</v>
+        <v>23.01363232245</v>
       </c>
       <c r="S5">
-        <v>0.01401933722285269</v>
+        <v>0.002268940737648845</v>
       </c>
       <c r="T5">
-        <v>0.0140193372228527</v>
+        <v>0.002268940737648846</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>117.701738</v>
       </c>
       <c r="I6">
-        <v>0.1483299167547496</v>
+        <v>0.2412735821509021</v>
       </c>
       <c r="J6">
-        <v>0.1483299167547496</v>
+        <v>0.2412735821509022</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.345069333333334</v>
+        <v>6.718514333333332</v>
       </c>
       <c r="N6">
-        <v>16.035208</v>
+        <v>20.155543</v>
       </c>
       <c r="O6">
-        <v>0.6268605172323812</v>
+        <v>0.969405744075698</v>
       </c>
       <c r="P6">
-        <v>0.6268605172323812</v>
+        <v>0.969405744075698</v>
       </c>
       <c r="Q6">
-        <v>209.7079834212782</v>
+        <v>263.5936046037482</v>
       </c>
       <c r="R6">
-        <v>1887.371850791504</v>
+        <v>2372.342441433734</v>
       </c>
       <c r="S6">
-        <v>0.09298216833791841</v>
+        <v>0.2338919964308043</v>
       </c>
       <c r="T6">
-        <v>0.09298216833791841</v>
+        <v>0.2338919964308044</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,40 +859,40 @@
         <v>117.701738</v>
       </c>
       <c r="I7">
-        <v>0.1483299167547496</v>
+        <v>0.2412735821509021</v>
       </c>
       <c r="J7">
-        <v>0.1483299167547496</v>
+        <v>0.2412735821509022</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>2.375759</v>
+        <v>0.14686</v>
       </c>
       <c r="N7">
-        <v>7.127277</v>
+        <v>0.44058</v>
       </c>
       <c r="O7">
-        <v>0.2786249200308754</v>
+        <v>0.02119023946538534</v>
       </c>
       <c r="P7">
-        <v>0.2786249200308755</v>
+        <v>0.02119023946538533</v>
       </c>
       <c r="Q7">
-        <v>93.21032112304734</v>
+        <v>5.761892414226668</v>
       </c>
       <c r="R7">
-        <v>838.8928901074261</v>
+        <v>51.85703172804001</v>
       </c>
       <c r="S7">
-        <v>0.04132841119397852</v>
+        <v>0.005112644982448937</v>
       </c>
       <c r="T7">
-        <v>0.04132841119397853</v>
+        <v>0.005112644982448939</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,46 +915,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>99.30192733333335</v>
+        <v>50.430027</v>
       </c>
       <c r="H8">
-        <v>297.905782</v>
+        <v>151.290081</v>
       </c>
       <c r="I8">
-        <v>0.3754264006264597</v>
+        <v>0.3101254102702387</v>
       </c>
       <c r="J8">
-        <v>0.3754264006264597</v>
+        <v>0.3101254102702387</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.8058999999999999</v>
+        <v>0.065175</v>
       </c>
       <c r="N8">
-        <v>2.4177</v>
+        <v>0.195525</v>
       </c>
       <c r="O8">
-        <v>0.09451456273674329</v>
+        <v>0.009404016458916581</v>
       </c>
       <c r="P8">
-        <v>0.0945145627367433</v>
+        <v>0.009404016458916581</v>
       </c>
       <c r="Q8">
-        <v>80.02742323793335</v>
+        <v>3.286777009725</v>
       </c>
       <c r="R8">
-        <v>720.2468091414001</v>
+        <v>29.58099308752501</v>
       </c>
       <c r="S8">
-        <v>0.03548326209503925</v>
+        <v>0.002916424462509582</v>
       </c>
       <c r="T8">
-        <v>0.03548326209503925</v>
+        <v>0.002916424462509582</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>99.30192733333335</v>
+        <v>50.430027</v>
       </c>
       <c r="H9">
-        <v>297.905782</v>
+        <v>151.290081</v>
       </c>
       <c r="I9">
-        <v>0.3754264006264597</v>
+        <v>0.3101254102702387</v>
       </c>
       <c r="J9">
-        <v>0.3754264006264597</v>
+        <v>0.3101254102702387</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.345069333333334</v>
+        <v>6.718514333333332</v>
       </c>
       <c r="N9">
-        <v>16.035208</v>
+        <v>20.155543</v>
       </c>
       <c r="O9">
-        <v>0.6268605172323812</v>
+        <v>0.969405744075698</v>
       </c>
       <c r="P9">
-        <v>0.6268605172323812</v>
+        <v>0.969405744075698</v>
       </c>
       <c r="Q9">
-        <v>530.7756865302953</v>
+        <v>338.814859229887</v>
       </c>
       <c r="R9">
-        <v>4776.981178772657</v>
+        <v>3049.333733068983</v>
       </c>
       <c r="S9">
-        <v>0.2353399876793937</v>
+        <v>0.3006373540998018</v>
       </c>
       <c r="T9">
-        <v>0.2353399876793937</v>
+        <v>0.3006373540998019</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,46 +1039,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>99.30192733333335</v>
+        <v>50.430027</v>
       </c>
       <c r="H10">
-        <v>297.905782</v>
+        <v>151.290081</v>
       </c>
       <c r="I10">
-        <v>0.3754264006264597</v>
+        <v>0.3101254102702387</v>
       </c>
       <c r="J10">
-        <v>0.3754264006264597</v>
+        <v>0.3101254102702387</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>2.375759</v>
+        <v>0.14686</v>
       </c>
       <c r="N10">
-        <v>7.127277</v>
+        <v>0.44058</v>
       </c>
       <c r="O10">
-        <v>0.2786249200308754</v>
+        <v>0.02119023946538534</v>
       </c>
       <c r="P10">
-        <v>0.2786249200308755</v>
+        <v>0.02119023946538533</v>
       </c>
       <c r="Q10">
-        <v>235.9174475795127</v>
+        <v>7.406153765220001</v>
       </c>
       <c r="R10">
-        <v>2123.257028215614</v>
+        <v>66.65538388698</v>
       </c>
       <c r="S10">
-        <v>0.1046031508520267</v>
+        <v>0.00657163170792723</v>
       </c>
       <c r="T10">
-        <v>0.1046031508520267</v>
+        <v>0.00657163170792723</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,46 +1101,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>12.19978633333333</v>
+        <v>3.269985333333333</v>
       </c>
       <c r="H11">
-        <v>36.599359</v>
+        <v>9.809956</v>
       </c>
       <c r="I11">
-        <v>0.04612319211248348</v>
+        <v>0.02010916121614733</v>
       </c>
       <c r="J11">
-        <v>0.04612319211248347</v>
+        <v>0.02010916121614734</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.8058999999999999</v>
+        <v>0.065175</v>
       </c>
       <c r="N11">
-        <v>2.4177</v>
+        <v>0.195525</v>
       </c>
       <c r="O11">
-        <v>0.09451456273674329</v>
+        <v>0.009404016458916581</v>
       </c>
       <c r="P11">
-        <v>0.0945145627367433</v>
+        <v>0.009404016458916581</v>
       </c>
       <c r="Q11">
-        <v>9.831807806033334</v>
+        <v>0.2131212941</v>
       </c>
       <c r="R11">
-        <v>88.4862702543</v>
+        <v>1.9180916469</v>
       </c>
       <c r="S11">
-        <v>0.004359313334534183</v>
+        <v>0.0001891068830516565</v>
       </c>
       <c r="T11">
-        <v>0.004359313334534183</v>
+        <v>0.0001891068830516566</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>12.19978633333333</v>
+        <v>3.269985333333333</v>
       </c>
       <c r="H12">
-        <v>36.599359</v>
+        <v>9.809956</v>
       </c>
       <c r="I12">
-        <v>0.04612319211248348</v>
+        <v>0.02010916121614733</v>
       </c>
       <c r="J12">
-        <v>0.04612319211248347</v>
+        <v>0.02010916121614734</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.345069333333334</v>
+        <v>6.718514333333332</v>
       </c>
       <c r="N12">
-        <v>16.035208</v>
+        <v>20.155543</v>
       </c>
       <c r="O12">
-        <v>0.6268605172323812</v>
+        <v>0.969405744075698</v>
       </c>
       <c r="P12">
-        <v>0.6268605172323812</v>
+        <v>0.969405744075698</v>
       </c>
       <c r="Q12">
-        <v>65.20870380351911</v>
+        <v>21.96944333178977</v>
       </c>
       <c r="R12">
-        <v>586.8783342316721</v>
+        <v>197.724989986108</v>
       </c>
       <c r="S12">
-        <v>0.02891280806403988</v>
+        <v>0.01949393639147748</v>
       </c>
       <c r="T12">
-        <v>0.02891280806403988</v>
+        <v>0.01949393639147748</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>12.19978633333333</v>
+        <v>3.269985333333333</v>
       </c>
       <c r="H13">
-        <v>36.599359</v>
+        <v>9.809956</v>
       </c>
       <c r="I13">
-        <v>0.04612319211248348</v>
+        <v>0.02010916121614733</v>
       </c>
       <c r="J13">
-        <v>0.04612319211248347</v>
+        <v>0.02010916121614734</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>2.375759</v>
+        <v>0.14686</v>
       </c>
       <c r="N13">
-        <v>7.127277</v>
+        <v>0.44058</v>
       </c>
       <c r="O13">
-        <v>0.2786249200308754</v>
+        <v>0.02119023946538534</v>
       </c>
       <c r="P13">
-        <v>0.2786249200308755</v>
+        <v>0.02119023946538533</v>
       </c>
       <c r="Q13">
-        <v>28.98375217949367</v>
+        <v>0.4802300460533334</v>
       </c>
       <c r="R13">
-        <v>260.853769615443</v>
+        <v>4.32207041448</v>
       </c>
       <c r="S13">
-        <v>0.01285107071390941</v>
+        <v>0.0004261179416182014</v>
       </c>
       <c r="T13">
-        <v>0.01285107071390941</v>
+        <v>0.0004261179416182015</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>34.08558533333333</v>
+        <v>47.074941</v>
       </c>
       <c r="H14">
-        <v>102.256756</v>
+        <v>141.224823</v>
       </c>
       <c r="I14">
-        <v>0.1288658635192859</v>
+        <v>0.2894929124482182</v>
       </c>
       <c r="J14">
-        <v>0.1288658635192859</v>
+        <v>0.2894929124482182</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.8058999999999999</v>
+        <v>0.065175</v>
       </c>
       <c r="N14">
-        <v>2.4177</v>
+        <v>0.195525</v>
       </c>
       <c r="O14">
-        <v>0.09451456273674329</v>
+        <v>0.009404016458916581</v>
       </c>
       <c r="P14">
-        <v>0.0945145627367433</v>
+        <v>0.009404016458916581</v>
       </c>
       <c r="Q14">
-        <v>27.46957322013333</v>
+        <v>3.068109279675</v>
       </c>
       <c r="R14">
-        <v>247.2261589812</v>
+        <v>27.612983517075</v>
       </c>
       <c r="S14">
-        <v>0.01217970074221814</v>
+        <v>0.002722396113402741</v>
       </c>
       <c r="T14">
-        <v>0.01217970074221815</v>
+        <v>0.002722396113402741</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>34.08558533333333</v>
+        <v>47.074941</v>
       </c>
       <c r="H15">
-        <v>102.256756</v>
+        <v>141.224823</v>
       </c>
       <c r="I15">
-        <v>0.1288658635192859</v>
+        <v>0.2894929124482182</v>
       </c>
       <c r="J15">
-        <v>0.1288658635192859</v>
+        <v>0.2894929124482182</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.345069333333334</v>
+        <v>6.718514333333332</v>
       </c>
       <c r="N15">
-        <v>16.035208</v>
+        <v>20.155543</v>
       </c>
       <c r="O15">
-        <v>0.6268605172323812</v>
+        <v>0.969405744075698</v>
       </c>
       <c r="P15">
-        <v>0.6268605172323812</v>
+        <v>0.969405744075698</v>
       </c>
       <c r="Q15">
-        <v>182.1898168739165</v>
+        <v>316.273665849321</v>
       </c>
       <c r="R15">
-        <v>1639.708351865248</v>
+        <v>2846.462992643889</v>
       </c>
       <c r="S15">
-        <v>0.080780921859297</v>
+        <v>0.2806360921965058</v>
       </c>
       <c r="T15">
-        <v>0.080780921859297</v>
+        <v>0.2806360921965059</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>34.08558533333333</v>
+        <v>47.074941</v>
       </c>
       <c r="H16">
-        <v>102.256756</v>
+        <v>141.224823</v>
       </c>
       <c r="I16">
-        <v>0.1288658635192859</v>
+        <v>0.2894929124482182</v>
       </c>
       <c r="J16">
-        <v>0.1288658635192859</v>
+        <v>0.2894929124482182</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>2.375759</v>
+        <v>0.14686</v>
       </c>
       <c r="N16">
-        <v>7.127277</v>
+        <v>0.44058</v>
       </c>
       <c r="O16">
-        <v>0.2786249200308754</v>
+        <v>0.02119023946538534</v>
       </c>
       <c r="P16">
-        <v>0.2786249200308755</v>
+        <v>0.02119023946538533</v>
       </c>
       <c r="Q16">
-        <v>80.97913612593467</v>
+        <v>6.913425835260001</v>
       </c>
       <c r="R16">
-        <v>728.8122251334121</v>
+        <v>62.22083251734001</v>
       </c>
       <c r="S16">
-        <v>0.03590524091777074</v>
+        <v>0.006134424138309575</v>
       </c>
       <c r="T16">
-        <v>0.03590524091777075</v>
+        <v>0.006134424138309575</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,46 +1473,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>71.499621</v>
+        <v>13.751998</v>
       </c>
       <c r="H17">
-        <v>214.498863</v>
+        <v>41.255994</v>
       </c>
       <c r="I17">
-        <v>0.2703154518651071</v>
+        <v>0.08456953675209218</v>
       </c>
       <c r="J17">
-        <v>0.2703154518651071</v>
+        <v>0.08456953675209219</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.8058999999999999</v>
+        <v>0.065175</v>
       </c>
       <c r="N17">
-        <v>2.4177</v>
+        <v>0.195525</v>
       </c>
       <c r="O17">
-        <v>0.09451456273674329</v>
+        <v>0.009404016458916581</v>
       </c>
       <c r="P17">
-        <v>0.0945145627367433</v>
+        <v>0.009404016458916581</v>
       </c>
       <c r="Q17">
-        <v>57.6215445639</v>
+        <v>0.89628646965</v>
       </c>
       <c r="R17">
-        <v>518.5939010751</v>
+        <v>8.06657822685</v>
       </c>
       <c r="S17">
-        <v>0.02554874673401577</v>
+        <v>0.0007952933155396255</v>
       </c>
       <c r="T17">
-        <v>0.02554874673401578</v>
+        <v>0.0007952933155396258</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>71.499621</v>
+        <v>13.751998</v>
       </c>
       <c r="H18">
-        <v>214.498863</v>
+        <v>41.255994</v>
       </c>
       <c r="I18">
-        <v>0.2703154518651071</v>
+        <v>0.08456953675209218</v>
       </c>
       <c r="J18">
-        <v>0.2703154518651071</v>
+        <v>0.08456953675209219</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>5.345069333333334</v>
+        <v>6.718514333333332</v>
       </c>
       <c r="N18">
-        <v>16.035208</v>
+        <v>20.155543</v>
       </c>
       <c r="O18">
-        <v>0.6268605172323812</v>
+        <v>0.969405744075698</v>
       </c>
       <c r="P18">
-        <v>0.6268605172323812</v>
+        <v>0.969405744075698</v>
       </c>
       <c r="Q18">
-        <v>382.1704315520561</v>
+        <v>92.39299567497132</v>
       </c>
       <c r="R18">
-        <v>3439.533883968504</v>
+        <v>831.536961074742</v>
       </c>
       <c r="S18">
-        <v>0.1694500839720659</v>
+        <v>0.08198219470129901</v>
       </c>
       <c r="T18">
-        <v>0.1694500839720659</v>
+        <v>0.08198219470129903</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>71.499621</v>
+        <v>13.751998</v>
       </c>
       <c r="H19">
-        <v>214.498863</v>
+        <v>41.255994</v>
       </c>
       <c r="I19">
-        <v>0.2703154518651071</v>
+        <v>0.08456953675209218</v>
       </c>
       <c r="J19">
-        <v>0.2703154518651071</v>
+        <v>0.08456953675209219</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>2.375759</v>
+        <v>0.14686</v>
       </c>
       <c r="N19">
-        <v>7.127277</v>
+        <v>0.44058</v>
       </c>
       <c r="O19">
-        <v>0.2786249200308754</v>
+        <v>0.02119023946538534</v>
       </c>
       <c r="P19">
-        <v>0.2786249200308755</v>
+        <v>0.02119023946538533</v>
       </c>
       <c r="Q19">
-        <v>169.865868087339</v>
+        <v>2.01961842628</v>
       </c>
       <c r="R19">
-        <v>1528.792812786051</v>
+        <v>18.17656583652</v>
       </c>
       <c r="S19">
-        <v>0.07531662115902542</v>
+        <v>0.00179204873525354</v>
       </c>
       <c r="T19">
-        <v>0.07531662115902543</v>
+        <v>0.00179204873525354</v>
       </c>
     </row>
   </sheetData>
